--- a/python_mtb_analysis/basecuradaMTb.xlsx
+++ b/python_mtb_analysis/basecuradaMTb.xlsx
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>proteinas_rna_o_procesamiento</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>proteinas_rna_o_procesamiento</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>proteinas_regulador_transcripcional</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>proteinas_transcripcion_traduccion</t>
+          <t>proteinas_metabolicas</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>proteinas_adaptoras_estres</t>
+          <t>proteinas_metabolicas</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>proteinas_regulador_transcripcional</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>proteinas_rna_o_procesamiento</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>proteinas_rna_o_procesamiento</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>proteinas_regulador_transcripcional</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>proteinas_transcripcion_traduccion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>proteinas_regulador_transcripcional</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>proteinas_regulador_transcripcional</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>proteinas_rna_o_procesamiento</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>proteinas_rna_o_procesamiento</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>proteinas_regulador_transcripcional</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>proteinas_transcripcion_traduccion</t>
+          <t>proteinas_metabolicas</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>proteinas_regulador_transcripcional</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -6380,7 +6380,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>proteinas_secrecion</t>
+          <t>proteinas_adaptoras_estres</t>
         </is>
       </c>
     </row>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>proteinas_rna_o_procesamiento</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>proteinas_rna_o_procesamiento</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>proteinas_regulador_transcripcional</t>
+          <t>proteinas_transcripcion_traduccion</t>
         </is>
       </c>
     </row>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>proteinas_transcripcion_traduccion</t>
+          <t>proteinas_metabolicas</t>
         </is>
       </c>
     </row>
